--- a/data/trans_orig/P71_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P71_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{609A197B-BC93-413F-8CAA-9C9118105835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD908E3D-7AEC-4DE6-B3FF-26116A60B876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DF91A73C-65A0-4259-AF70-D5DB36B66B38}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{219076A9-66CC-4A6F-AD27-733EBC0D4D06}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="423">
   <si>
     <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2007 (Tasa respuesta: 98,33%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>10,3%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
   </si>
   <si>
     <t>14,3%</t>
   </si>
   <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
   </si>
   <si>
     <t>12,28%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>89,7%</t>
   </si>
   <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>85,7%</t>
   </si>
   <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
   </si>
   <si>
     <t>87,72%</t>
   </si>
   <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>15,47%</t>
   </si>
   <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
   </si>
   <si>
     <t>25,92%</t>
   </si>
   <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
   </si>
   <si>
     <t>20,67%</t>
   </si>
   <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
   </si>
   <si>
     <t>84,53%</t>
   </si>
   <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
   </si>
   <si>
     <t>74,08%</t>
   </si>
   <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
   </si>
   <si>
     <t>79,33%</t>
   </si>
   <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -197,28 +197,25 @@
     <t>16,75%</t>
   </si>
   <si>
-    <t>14,37%</t>
-  </si>
-  <si>
     <t>19,31%</t>
   </si>
   <si>
     <t>26,28%</t>
   </si>
   <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
   </si>
   <si>
     <t>21,52%</t>
   </si>
   <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
   </si>
   <si>
     <t>83,25%</t>
@@ -227,25 +224,22 @@
     <t>80,69%</t>
   </si>
   <si>
-    <t>85,63%</t>
-  </si>
-  <si>
     <t>73,72%</t>
   </si>
   <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
   </si>
   <si>
     <t>78,48%</t>
   </si>
   <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -254,1102 +248,1066 @@
     <t>19,64%</t>
   </si>
   <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
   </si>
   <si>
     <t>30,52%</t>
   </si>
   <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
   </si>
   <si>
     <t>25,07%</t>
   </si>
   <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2012 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2016 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2023 (Tasa respuesta: 98,92%)</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
     <t>22,79%</t>
   </si>
   <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
   </si>
   <si>
     <t>77,21%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2012 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2016 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2023 (Tasa respuesta: 98,92%)</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
+    <t>83,49%</t>
   </si>
   <si>
     <t>82,69%</t>
   </si>
   <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
+    <t>84,56%</t>
   </si>
   <si>
     <t>13,24%</t>
   </si>
   <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
   </si>
   <si>
     <t>16,06%</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
+    <t>17,63%</t>
   </si>
   <si>
     <t>14,73%</t>
   </si>
   <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
   </si>
   <si>
     <t>86,76%</t>
   </si>
   <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
   </si>
   <si>
     <t>83,94%</t>
   </si>
   <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
+    <t>82,37%</t>
   </si>
   <si>
     <t>85,27%</t>
   </si>
   <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00A5106-3BAD-4D04-BE85-872D336A75C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728882F6-2FC8-4EC5-B9C2-A75E2BD8F9C3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2198,10 +2156,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>231</v>
@@ -2210,13 +2168,13 @@
         <v>249682</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>380</v>
@@ -2225,13 +2183,13 @@
         <v>408376</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,13 +2204,13 @@
         <v>788737</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="H11" s="7">
         <v>660</v>
@@ -2261,13 +2219,13 @@
         <v>700577</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1394</v>
@@ -2276,13 +2234,13 @@
         <v>1489314</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,7 +2296,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2350,13 +2308,13 @@
         <v>131935</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>204</v>
@@ -2365,13 +2323,13 @@
         <v>204183</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>327</v>
@@ -2380,13 +2338,13 @@
         <v>336118</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,13 +2359,13 @@
         <v>539727</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>477</v>
@@ -2416,13 +2374,13 @@
         <v>464805</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>988</v>
@@ -2431,13 +2389,13 @@
         <v>1004532</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,7 +2451,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2505,13 +2463,13 @@
         <v>193339</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>289</v>
@@ -2520,28 +2478,28 @@
         <v>305526</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>492</v>
       </c>
       <c r="N16" s="7">
-        <v>498864</v>
+        <v>498865</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,13 +2514,13 @@
         <v>732798</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>686</v>
@@ -2571,13 +2529,13 @@
         <v>711273</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1460</v>
@@ -2586,13 +2544,13 @@
         <v>1444071</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,7 +2592,7 @@
         <v>1952</v>
       </c>
       <c r="N18" s="7">
-        <v>1942935</v>
+        <v>1942936</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2660,13 +2618,13 @@
         <v>584141</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>885</v>
@@ -2675,13 +2633,13 @@
         <v>922333</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1459</v>
@@ -2690,13 +2648,13 @@
         <v>1506475</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2669,13 @@
         <v>2646688</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>2349</v>
@@ -2726,13 +2684,13 @@
         <v>2392636</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>4943</v>
@@ -2741,13 +2699,13 @@
         <v>5039323</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,7 +2761,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2824,7 +2782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEE742F-9733-4ABB-A6E0-5B0A8AED8D36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF0D3B5-6542-43B2-BD8E-F04505A37958}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2841,7 +2799,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2948,13 +2906,13 @@
         <v>22084</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -2963,13 +2921,13 @@
         <v>23537</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>46</v>
@@ -2978,13 +2936,13 @@
         <v>45621</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +2957,13 @@
         <v>93681</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>77</v>
@@ -3014,13 +2972,13 @@
         <v>88368</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M5" s="7">
         <v>175</v>
@@ -3029,13 +2987,13 @@
         <v>182049</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3061,13 @@
         <v>176733</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>173</v>
@@ -3118,13 +3076,13 @@
         <v>187135</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>341</v>
@@ -3133,13 +3091,13 @@
         <v>363868</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3112,13 @@
         <v>407874</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>373</v>
@@ -3169,13 +3127,13 @@
         <v>392992</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>754</v>
@@ -3184,13 +3142,13 @@
         <v>800866</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,13 +3216,13 @@
         <v>359023</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>328</v>
@@ -3273,13 +3231,13 @@
         <v>363676</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>655</v>
@@ -3288,13 +3246,13 @@
         <v>722698</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,13 +3267,13 @@
         <v>654523</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>605</v>
@@ -3324,13 +3282,13 @@
         <v>660107</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>1210</v>
@@ -3339,13 +3297,13 @@
         <v>1314630</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,7 +3359,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3413,13 +3371,13 @@
         <v>266641</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>260</v>
@@ -3428,13 +3386,13 @@
         <v>284652</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M13" s="7">
         <v>509</v>
@@ -3443,13 +3401,13 @@
         <v>551293</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,13 +3422,13 @@
         <v>487073</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H14" s="7">
         <v>443</v>
@@ -3479,13 +3437,13 @@
         <v>490354</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>879</v>
@@ -3494,13 +3452,13 @@
         <v>977427</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,7 +3514,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3568,13 +3526,13 @@
         <v>219455</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>248</v>
@@ -3583,13 +3541,13 @@
         <v>260928</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>458</v>
@@ -3598,13 +3556,13 @@
         <v>480383</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>36</v>
+        <v>197</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,13 +3577,13 @@
         <v>722059</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H17" s="7">
         <v>755</v>
@@ -3634,13 +3592,13 @@
         <v>790973</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M17" s="7">
         <v>1450</v>
@@ -3649,13 +3607,13 @@
         <v>1513032</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>46</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,13 +3681,13 @@
         <v>1043935</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>1031</v>
@@ -3738,13 +3696,13 @@
         <v>1119928</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M19" s="7">
         <v>2009</v>
@@ -3753,13 +3711,13 @@
         <v>2163863</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>223</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,13 +3732,13 @@
         <v>2365210</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="H20" s="7">
         <v>2253</v>
@@ -3789,13 +3747,13 @@
         <v>2422794</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="M20" s="7">
         <v>4468</v>
@@ -3804,13 +3762,13 @@
         <v>4788004</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>231</v>
+        <v>170</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,7 +3824,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3887,7 +3845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A08001A-2546-45CD-B9A7-DBE6B227E056}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E073B6-1783-463F-8993-BCA8E1C1D225}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3904,7 +3862,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4011,13 +3969,13 @@
         <v>39122</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H4" s="7">
         <v>35</v>
@@ -4026,13 +3984,13 @@
         <v>34486</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M4" s="7">
         <v>70</v>
@@ -4041,13 +3999,13 @@
         <v>73608</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4020,13 @@
         <v>75484</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="H5" s="7">
         <v>79</v>
@@ -4077,13 +4035,13 @@
         <v>78042</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="M5" s="7">
         <v>155</v>
@@ -4092,13 +4050,13 @@
         <v>153526</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4124,13 @@
         <v>191890</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="H7" s="7">
         <v>191</v>
@@ -4181,13 +4139,13 @@
         <v>195820</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M7" s="7">
         <v>376</v>
@@ -4196,13 +4154,13 @@
         <v>387710</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4175,13 @@
         <v>358836</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="H8" s="7">
         <v>353</v>
@@ -4232,13 +4190,13 @@
         <v>356563</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>700</v>
@@ -4247,13 +4205,13 @@
         <v>715399</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4279,13 @@
         <v>345833</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="H10" s="7">
         <v>344</v>
@@ -4336,13 +4294,13 @@
         <v>363900</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>666</v>
@@ -4351,13 +4309,13 @@
         <v>709733</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4330,13 @@
         <v>668690</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>627</v>
@@ -4387,13 +4345,13 @@
         <v>671251</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>173</v>
+        <v>273</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M11" s="7">
         <v>1248</v>
@@ -4402,13 +4360,13 @@
         <v>1339941</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,7 +4422,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4476,13 +4434,13 @@
         <v>319857</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H13" s="7">
         <v>340</v>
@@ -4491,13 +4449,13 @@
         <v>365480</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>634</v>
@@ -4506,13 +4464,13 @@
         <v>685337</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4485,13 @@
         <v>435181</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
         <v>395</v>
@@ -4542,13 +4500,13 @@
         <v>418467</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>793</v>
@@ -4557,13 +4515,13 @@
         <v>853648</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,7 +4577,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4631,13 +4589,13 @@
         <v>231295</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="H16" s="7">
         <v>278</v>
@@ -4646,13 +4604,13 @@
         <v>299875</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>178</v>
       </c>
       <c r="M16" s="7">
         <v>508</v>
@@ -4661,13 +4619,13 @@
         <v>531170</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>307</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4640,13 @@
         <v>701095</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H17" s="7">
         <v>680</v>
@@ -4697,13 +4655,13 @@
         <v>742908</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>187</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="M17" s="7">
         <v>1377</v>
@@ -4712,13 +4670,13 @@
         <v>1444003</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>219</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4744,13 @@
         <v>1127997</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="H19" s="7">
         <v>1188</v>
@@ -4801,13 +4759,13 @@
         <v>1259561</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="M19" s="7">
         <v>2254</v>
@@ -4816,13 +4774,13 @@
         <v>2387558</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4795,13 @@
         <v>2239285</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="H20" s="7">
         <v>2134</v>
@@ -4852,28 +4810,28 @@
         <v>2267231</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="M20" s="7">
         <v>4273</v>
       </c>
       <c r="N20" s="7">
-        <v>4506516</v>
+        <v>4506517</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,7 +4873,7 @@
         <v>6527</v>
       </c>
       <c r="N21" s="7">
-        <v>6894074</v>
+        <v>6894075</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4929,7 +4887,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4950,7 +4908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEFA524-BBB4-4DB4-AEE0-FAA9E58F6C31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DA7B26-13D3-432C-BD93-7082D2785C21}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4967,7 +4925,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5074,13 +5032,13 @@
         <v>4172</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -5089,13 +5047,13 @@
         <v>23883</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -5104,13 +5062,13 @@
         <v>28055</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,13 +5083,13 @@
         <v>92604</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="H5" s="7">
         <v>191</v>
@@ -5140,13 +5098,13 @@
         <v>101271</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="M5" s="7">
         <v>298</v>
@@ -5155,13 +5113,13 @@
         <v>193875</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5187,13 @@
         <v>73996</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="H7" s="7">
         <v>155</v>
@@ -5244,13 +5202,13 @@
         <v>93387</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="M7" s="7">
         <v>235</v>
@@ -5259,13 +5217,13 @@
         <v>167383</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5238,13 @@
         <v>465222</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="H8" s="7">
         <v>829</v>
@@ -5295,13 +5253,13 @@
         <v>519195</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="M8" s="7">
         <v>1354</v>
@@ -5310,13 +5268,13 @@
         <v>984416</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5342,13 @@
         <v>118652</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="H10" s="7">
         <v>216</v>
@@ -5399,13 +5357,13 @@
         <v>149290</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="M10" s="7">
         <v>339</v>
@@ -5414,13 +5372,13 @@
         <v>267942</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5393,13 @@
         <v>908935</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="H11" s="7">
         <v>1289</v>
@@ -5450,13 +5408,13 @@
         <v>902315</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="M11" s="7">
         <v>2121</v>
@@ -5465,13 +5423,13 @@
         <v>1811250</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5527,7 +5485,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5539,13 +5497,13 @@
         <v>99642</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H13" s="7">
         <v>178</v>
@@ -5554,13 +5512,13 @@
         <v>124987</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="M13" s="7">
         <v>274</v>
@@ -5569,13 +5527,13 @@
         <v>224629</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,13 +5548,13 @@
         <v>623950</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="H14" s="7">
         <v>859</v>
@@ -5605,13 +5563,13 @@
         <v>734452</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="M14" s="7">
         <v>1432</v>
@@ -5620,13 +5578,13 @@
         <v>1358402</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,7 +5640,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5694,13 +5652,13 @@
         <v>146081</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="H16" s="7">
         <v>270</v>
@@ -5709,13 +5667,13 @@
         <v>216519</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M16" s="7">
         <v>420</v>
@@ -5724,13 +5682,13 @@
         <v>362600</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>409</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,13 +5703,13 @@
         <v>810393</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>1279</v>
@@ -5760,13 +5718,13 @@
         <v>921504</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>2128</v>
@@ -5775,13 +5733,13 @@
         <v>1731897</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>417</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,13 +5807,13 @@
         <v>442544</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="H19" s="7">
         <v>861</v>
@@ -5864,13 +5822,13 @@
         <v>608065</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>423</v>
+        <v>379</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>1316</v>
@@ -5879,13 +5837,13 @@
         <v>1050609</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5858,13 @@
         <v>2901102</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>4447</v>
@@ -5915,28 +5873,28 @@
         <v>3178738</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>433</v>
+        <v>388</v>
       </c>
       <c r="M20" s="7">
         <v>7333</v>
       </c>
       <c r="N20" s="7">
-        <v>6079839</v>
+        <v>6079840</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,7 +5936,7 @@
         <v>8649</v>
       </c>
       <c r="N21" s="7">
-        <v>7130448</v>
+        <v>7130449</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5992,7 +5950,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P71_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P71_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD908E3D-7AEC-4DE6-B3FF-26116A60B876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B02D766-0C8D-4088-9F85-7DA83132641D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{219076A9-66CC-4A6F-AD27-733EBC0D4D06}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{77834A6C-9915-4677-8268-9807848DA89B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="364">
   <si>
     <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2007 (Tasa respuesta: 98,33%)</t>
   </si>
@@ -68,1246 +68,1069 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>16,75%</t>
   </si>
   <si>
     <t>14,3%</t>
   </si>
   <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2012 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2016 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2023 (Tasa respuesta: 98,92%)</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
   </si>
   <si>
     <t>16,92%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
   </si>
   <si>
     <t>83,08%</t>
   </si>
   <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2012 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2016 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
   </si>
   <si>
     <t>22,33%</t>
   </si>
   <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
   </si>
   <si>
     <t>77,67%</t>
   </si>
   <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2023 (Tasa respuesta: 98,92%)</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
   </si>
 </sst>
 </file>
@@ -1719,8 +1542,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728882F6-2FC8-4EC5-B9C2-A75E2BD8F9C3}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C8CDD3-181A-4D1B-BAFD-5C0DF0E72C9E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1837,10 +1660,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="D4" s="7">
-        <v>11779</v>
+        <v>100174</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1852,10 +1675,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="I4" s="7">
-        <v>16011</v>
+        <v>162942</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1867,10 +1690,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>28</v>
+        <v>260</v>
       </c>
       <c r="N4" s="7">
-        <v>27790</v>
+        <v>263116</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1888,10 +1711,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>93</v>
+        <v>575</v>
       </c>
       <c r="D5" s="7">
-        <v>102563</v>
+        <v>585426</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1903,10 +1726,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>110</v>
+        <v>526</v>
       </c>
       <c r="I5" s="7">
-        <v>95949</v>
+        <v>515981</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1918,10 +1741,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>203</v>
+        <v>1101</v>
       </c>
       <c r="N5" s="7">
-        <v>198512</v>
+        <v>1101407</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1939,10 +1762,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>104</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>114342</v>
+        <v>685600</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1954,10 +1777,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>127</v>
+        <v>687</v>
       </c>
       <c r="I6" s="7">
-        <v>111960</v>
+        <v>678923</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1969,10 +1792,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>231</v>
+        <v>1361</v>
       </c>
       <c r="N6" s="7">
-        <v>226302</v>
+        <v>1364523</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1992,10 +1815,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="D7" s="7">
-        <v>88395</v>
+        <v>158693</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2007,10 +1830,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>144</v>
+        <v>231</v>
       </c>
       <c r="I7" s="7">
-        <v>146931</v>
+        <v>249682</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2022,10 +1845,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>232</v>
+        <v>380</v>
       </c>
       <c r="N7" s="7">
-        <v>235326</v>
+        <v>408375</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2043,10 +1866,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>482</v>
+        <v>734</v>
       </c>
       <c r="D8" s="7">
-        <v>482863</v>
+        <v>788737</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2058,10 +1881,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>416</v>
+        <v>660</v>
       </c>
       <c r="I8" s="7">
-        <v>420032</v>
+        <v>700577</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2073,10 +1896,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>898</v>
+        <v>1394</v>
       </c>
       <c r="N8" s="7">
-        <v>902895</v>
+        <v>1489314</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2094,10 +1917,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>570</v>
+        <v>883</v>
       </c>
       <c r="D9" s="7">
-        <v>571258</v>
+        <v>947430</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2109,10 +1932,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>560</v>
+        <v>891</v>
       </c>
       <c r="I9" s="7">
-        <v>566963</v>
+        <v>950259</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2124,10 +1947,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1130</v>
+        <v>1774</v>
       </c>
       <c r="N9" s="7">
-        <v>1138221</v>
+        <v>1897689</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2147,49 +1970,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="D10" s="7">
-        <v>158693</v>
+        <v>131935</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="I10" s="7">
-        <v>249682</v>
+        <v>204183</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>380</v>
+        <v>327</v>
       </c>
       <c r="N10" s="7">
-        <v>408376</v>
+        <v>336118</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,49 +2021,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>734</v>
+        <v>511</v>
       </c>
       <c r="D11" s="7">
-        <v>788737</v>
+        <v>539727</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>660</v>
+        <v>477</v>
       </c>
       <c r="I11" s="7">
-        <v>700577</v>
+        <v>464805</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1394</v>
+        <v>988</v>
       </c>
       <c r="N11" s="7">
-        <v>1489314</v>
+        <v>1004532</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,10 +2072,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>883</v>
+        <v>634</v>
       </c>
       <c r="D12" s="7">
-        <v>947430</v>
+        <v>671662</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2264,10 +2087,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>891</v>
+        <v>681</v>
       </c>
       <c r="I12" s="7">
-        <v>950259</v>
+        <v>668988</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2279,10 +2102,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1774</v>
+        <v>1315</v>
       </c>
       <c r="N12" s="7">
-        <v>1897690</v>
+        <v>1340650</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2296,55 +2119,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="D13" s="7">
-        <v>131935</v>
+        <v>193339</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>204</v>
+        <v>289</v>
       </c>
       <c r="I13" s="7">
-        <v>204183</v>
+        <v>305526</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>327</v>
+        <v>492</v>
       </c>
       <c r="N13" s="7">
-        <v>336118</v>
+        <v>498864</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,49 +2176,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>511</v>
+        <v>774</v>
       </c>
       <c r="D14" s="7">
-        <v>539727</v>
+        <v>732798</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>477</v>
+        <v>686</v>
       </c>
       <c r="I14" s="7">
-        <v>464805</v>
+        <v>711273</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>988</v>
+        <v>1460</v>
       </c>
       <c r="N14" s="7">
-        <v>1004532</v>
+        <v>1444071</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,10 +2227,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>634</v>
+        <v>977</v>
       </c>
       <c r="D15" s="7">
-        <v>671662</v>
+        <v>926137</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2419,10 +2242,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>681</v>
+        <v>975</v>
       </c>
       <c r="I15" s="7">
-        <v>668988</v>
+        <v>1016799</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2434,10 +2257,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1315</v>
+        <v>1952</v>
       </c>
       <c r="N15" s="7">
-        <v>1340650</v>
+        <v>1942935</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2451,55 +2274,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>203</v>
+        <v>574</v>
       </c>
       <c r="D16" s="7">
-        <v>193339</v>
+        <v>584141</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>289</v>
+        <v>885</v>
       </c>
       <c r="I16" s="7">
-        <v>305526</v>
+        <v>922333</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>492</v>
+        <v>1459</v>
       </c>
       <c r="N16" s="7">
-        <v>498865</v>
+        <v>1506475</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,49 +2331,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>774</v>
+        <v>2594</v>
       </c>
       <c r="D17" s="7">
-        <v>732798</v>
+        <v>2646688</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>686</v>
+        <v>2349</v>
       </c>
       <c r="I17" s="7">
-        <v>711273</v>
+        <v>2392636</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>1460</v>
+        <v>4943</v>
       </c>
       <c r="N17" s="7">
-        <v>1444071</v>
+        <v>5039323</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2559,10 +2382,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>977</v>
+        <v>3168</v>
       </c>
       <c r="D18" s="7">
-        <v>926137</v>
+        <v>3230829</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2574,10 +2397,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>975</v>
+        <v>3234</v>
       </c>
       <c r="I18" s="7">
-        <v>1016799</v>
+        <v>3314969</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2589,10 +2412,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1952</v>
+        <v>6402</v>
       </c>
       <c r="N18" s="7">
-        <v>1942936</v>
+        <v>6545798</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2605,171 +2428,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>574</v>
-      </c>
-      <c r="D19" s="7">
-        <v>584141</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>885</v>
-      </c>
-      <c r="I19" s="7">
-        <v>922333</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1459</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1506475</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2594</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2646688</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2349</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2392636</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4943</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5039323</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3168</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3230829</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3234</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3314969</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6402</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6545798</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2782,8 +2449,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF0D3B5-6542-43B2-BD8E-F04505A37958}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9FD23E-AF4A-4C64-B5AF-2C5B83D0C969}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2799,7 +2466,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2900,49 +2567,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="D4" s="7">
-        <v>22084</v>
+        <v>198816</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="I4" s="7">
-        <v>23537</v>
+        <v>210672</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>46</v>
+        <v>387</v>
       </c>
       <c r="N4" s="7">
-        <v>45621</v>
+        <v>409488</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,49 +2618,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>98</v>
+        <v>479</v>
       </c>
       <c r="D5" s="7">
-        <v>93681</v>
+        <v>501556</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>77</v>
+        <v>450</v>
       </c>
       <c r="I5" s="7">
-        <v>88368</v>
+        <v>481360</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>175</v>
+        <v>929</v>
       </c>
       <c r="N5" s="7">
-        <v>182049</v>
+        <v>982916</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,10 +2669,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>671</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>700372</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3017,10 +2684,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>645</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>692032</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3032,10 +2699,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1316</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1392404</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3055,49 +2722,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>168</v>
+        <v>327</v>
       </c>
       <c r="D7" s="7">
-        <v>176733</v>
+        <v>359023</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>173</v>
+        <v>328</v>
       </c>
       <c r="I7" s="7">
-        <v>187135</v>
+        <v>363676</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>341</v>
+        <v>655</v>
       </c>
       <c r="N7" s="7">
-        <v>363868</v>
+        <v>722698</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,49 +2773,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>381</v>
+        <v>605</v>
       </c>
       <c r="D8" s="7">
-        <v>407874</v>
+        <v>654523</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>373</v>
+        <v>605</v>
       </c>
       <c r="I8" s="7">
-        <v>392992</v>
+        <v>660107</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>754</v>
+        <v>1210</v>
       </c>
       <c r="N8" s="7">
-        <v>800866</v>
+        <v>1314630</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,10 +2824,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>549</v>
+        <v>932</v>
       </c>
       <c r="D9" s="7">
-        <v>584607</v>
+        <v>1013546</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3172,10 +2839,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>546</v>
+        <v>933</v>
       </c>
       <c r="I9" s="7">
-        <v>580127</v>
+        <v>1023783</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3187,10 +2854,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1095</v>
+        <v>1865</v>
       </c>
       <c r="N9" s="7">
-        <v>1164734</v>
+        <v>2037328</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3210,49 +2877,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>327</v>
+        <v>249</v>
       </c>
       <c r="D10" s="7">
-        <v>359023</v>
+        <v>266641</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>328</v>
+        <v>260</v>
       </c>
       <c r="I10" s="7">
-        <v>363676</v>
+        <v>284652</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>655</v>
+        <v>509</v>
       </c>
       <c r="N10" s="7">
-        <v>722698</v>
+        <v>551293</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,49 +2928,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>605</v>
+        <v>436</v>
       </c>
       <c r="D11" s="7">
-        <v>654523</v>
+        <v>487073</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>605</v>
+        <v>443</v>
       </c>
       <c r="I11" s="7">
-        <v>660107</v>
+        <v>490354</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>1210</v>
+        <v>879</v>
       </c>
       <c r="N11" s="7">
-        <v>1314630</v>
+        <v>977427</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,10 +2979,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>932</v>
+        <v>685</v>
       </c>
       <c r="D12" s="7">
-        <v>1013546</v>
+        <v>753714</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3327,10 +2994,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>933</v>
+        <v>703</v>
       </c>
       <c r="I12" s="7">
-        <v>1023783</v>
+        <v>775006</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3342,10 +3009,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1865</v>
+        <v>1388</v>
       </c>
       <c r="N12" s="7">
-        <v>2037328</v>
+        <v>1528720</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3359,55 +3026,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="D13" s="7">
-        <v>266641</v>
+        <v>219455</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="I13" s="7">
-        <v>284652</v>
+        <v>260928</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>509</v>
+        <v>458</v>
       </c>
       <c r="N13" s="7">
-        <v>551293</v>
+        <v>480383</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,49 +3083,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>436</v>
+        <v>695</v>
       </c>
       <c r="D14" s="7">
-        <v>487073</v>
+        <v>722059</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="H14" s="7">
-        <v>443</v>
+        <v>755</v>
       </c>
       <c r="I14" s="7">
-        <v>490354</v>
+        <v>790973</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="M14" s="7">
-        <v>879</v>
+        <v>1450</v>
       </c>
       <c r="N14" s="7">
-        <v>977427</v>
+        <v>1513032</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,10 +3134,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>685</v>
+        <v>905</v>
       </c>
       <c r="D15" s="7">
-        <v>753714</v>
+        <v>941514</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3482,10 +3149,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>703</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>775006</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3497,10 +3164,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1388</v>
+        <v>1908</v>
       </c>
       <c r="N15" s="7">
-        <v>1528720</v>
+        <v>1993415</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3514,55 +3181,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>210</v>
+        <v>978</v>
       </c>
       <c r="D16" s="7">
-        <v>219455</v>
+        <v>1043935</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>248</v>
+        <v>1031</v>
       </c>
       <c r="I16" s="7">
-        <v>260928</v>
+        <v>1119928</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
-        <v>458</v>
+        <v>2009</v>
       </c>
       <c r="N16" s="7">
-        <v>480383</v>
+        <v>2163863</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,49 +3238,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>695</v>
+        <v>2215</v>
       </c>
       <c r="D17" s="7">
-        <v>722059</v>
+        <v>2365210</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="H17" s="7">
-        <v>755</v>
+        <v>2253</v>
       </c>
       <c r="I17" s="7">
-        <v>790973</v>
+        <v>2422794</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="M17" s="7">
-        <v>1450</v>
+        <v>4468</v>
       </c>
       <c r="N17" s="7">
-        <v>1513032</v>
+        <v>4788004</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,10 +3289,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>905</v>
+        <v>3193</v>
       </c>
       <c r="D18" s="7">
-        <v>941514</v>
+        <v>3409145</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3637,10 +3304,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3284</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3542722</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3652,10 +3319,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1908</v>
+        <v>6477</v>
       </c>
       <c r="N18" s="7">
-        <v>1993415</v>
+        <v>6951867</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3668,171 +3335,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>978</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1043935</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1031</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1119928</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2009</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2163863</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2215</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2365210</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2253</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2422794</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4468</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4788004</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3193</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3409145</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3284</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3542722</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6477</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6951867</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3845,8 +3356,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E073B6-1783-463F-8993-BCA8E1C1D225}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD557F7-C392-402E-BDFC-1F8A9F51900A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3862,7 +3373,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3963,49 +3474,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>35</v>
+        <v>220</v>
       </c>
       <c r="D4" s="7">
-        <v>39122</v>
+        <v>231012</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="7">
         <v>226</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H4" s="7">
-        <v>35</v>
-      </c>
       <c r="I4" s="7">
-        <v>34486</v>
+        <v>230306</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
-        <v>70</v>
+        <v>446</v>
       </c>
       <c r="N4" s="7">
-        <v>73608</v>
+        <v>461318</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,49 +3525,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>76</v>
+        <v>423</v>
       </c>
       <c r="D5" s="7">
-        <v>75484</v>
+        <v>434319</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="I5" s="7">
-        <v>78042</v>
+        <v>434606</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
-        <v>155</v>
+        <v>855</v>
       </c>
       <c r="N5" s="7">
-        <v>153526</v>
+        <v>868925</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,10 +3576,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>111</v>
+        <v>643</v>
       </c>
       <c r="D6" s="7">
-        <v>114606</v>
+        <v>665331</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4080,10 +3591,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>114</v>
+        <v>658</v>
       </c>
       <c r="I6" s="7">
-        <v>112528</v>
+        <v>664912</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4095,10 +3606,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>225</v>
+        <v>1301</v>
       </c>
       <c r="N6" s="7">
-        <v>227134</v>
+        <v>1330243</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4118,49 +3629,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>185</v>
+        <v>322</v>
       </c>
       <c r="D7" s="7">
-        <v>191890</v>
+        <v>345833</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
-        <v>191</v>
+        <v>344</v>
       </c>
       <c r="I7" s="7">
-        <v>195820</v>
+        <v>363900</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
-        <v>376</v>
+        <v>666</v>
       </c>
       <c r="N7" s="7">
-        <v>387710</v>
+        <v>709733</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,49 +3680,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>347</v>
+        <v>621</v>
       </c>
       <c r="D8" s="7">
-        <v>358836</v>
+        <v>668690</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
-        <v>353</v>
+        <v>627</v>
       </c>
       <c r="I8" s="7">
-        <v>356563</v>
+        <v>671251</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
-        <v>700</v>
+        <v>1248</v>
       </c>
       <c r="N8" s="7">
-        <v>715399</v>
+        <v>1339940</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,10 +3731,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>532</v>
+        <v>943</v>
       </c>
       <c r="D9" s="7">
-        <v>550726</v>
+        <v>1014523</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4235,10 +3746,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>544</v>
+        <v>971</v>
       </c>
       <c r="I9" s="7">
-        <v>552383</v>
+        <v>1035151</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4250,10 +3761,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1076</v>
+        <v>1914</v>
       </c>
       <c r="N9" s="7">
-        <v>1103109</v>
+        <v>2049673</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4273,49 +3784,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="D10" s="7">
-        <v>345833</v>
+        <v>319857</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>128</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H10" s="7">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="I10" s="7">
-        <v>363900</v>
+        <v>365480</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="M10" s="7">
-        <v>666</v>
+        <v>634</v>
       </c>
       <c r="N10" s="7">
-        <v>709733</v>
+        <v>685337</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,49 +3835,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>621</v>
+        <v>398</v>
       </c>
       <c r="D11" s="7">
-        <v>668690</v>
+        <v>435181</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
-        <v>627</v>
+        <v>395</v>
       </c>
       <c r="I11" s="7">
-        <v>671251</v>
+        <v>418467</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
-        <v>1248</v>
+        <v>793</v>
       </c>
       <c r="N11" s="7">
-        <v>1339941</v>
+        <v>853648</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4375,10 +3886,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>943</v>
+        <v>692</v>
       </c>
       <c r="D12" s="7">
-        <v>1014523</v>
+        <v>755038</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4390,10 +3901,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>971</v>
+        <v>735</v>
       </c>
       <c r="I12" s="7">
-        <v>1035151</v>
+        <v>783947</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4405,10 +3916,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1914</v>
+        <v>1427</v>
       </c>
       <c r="N12" s="7">
-        <v>2049674</v>
+        <v>1538985</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4422,55 +3933,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>294</v>
+        <v>230</v>
       </c>
       <c r="D13" s="7">
-        <v>319857</v>
+        <v>231295</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H13" s="7">
         <v>278</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H13" s="7">
-        <v>340</v>
-      </c>
       <c r="I13" s="7">
-        <v>365480</v>
+        <v>299875</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>145</v>
       </c>
       <c r="M13" s="7">
-        <v>634</v>
+        <v>508</v>
       </c>
       <c r="N13" s="7">
-        <v>685337</v>
+        <v>531170</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,49 +3990,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>398</v>
+        <v>697</v>
       </c>
       <c r="D14" s="7">
-        <v>435181</v>
+        <v>701095</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>173</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>169</v>
+        <v>254</v>
       </c>
       <c r="H14" s="7">
-        <v>395</v>
+        <v>680</v>
       </c>
       <c r="I14" s="7">
-        <v>418467</v>
+        <v>742908</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="M14" s="7">
-        <v>793</v>
+        <v>1377</v>
       </c>
       <c r="N14" s="7">
-        <v>853648</v>
+        <v>1444003</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>188</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,10 +4041,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>692</v>
+        <v>927</v>
       </c>
       <c r="D15" s="7">
-        <v>755038</v>
+        <v>932390</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4545,10 +4056,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>735</v>
+        <v>958</v>
       </c>
       <c r="I15" s="7">
-        <v>783947</v>
+        <v>1042783</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4560,10 +4071,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1427</v>
+        <v>1885</v>
       </c>
       <c r="N15" s="7">
-        <v>1538985</v>
+        <v>1975173</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4577,55 +4088,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>230</v>
+        <v>1066</v>
       </c>
       <c r="D16" s="7">
-        <v>231295</v>
+        <v>1127997</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>196</v>
+        <v>259</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="H16" s="7">
-        <v>278</v>
+        <v>1188</v>
       </c>
       <c r="I16" s="7">
-        <v>299875</v>
+        <v>1259561</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>178</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7">
-        <v>508</v>
+        <v>2254</v>
       </c>
       <c r="N16" s="7">
-        <v>531170</v>
+        <v>2387558</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>210</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,49 +4145,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>697</v>
+        <v>2139</v>
       </c>
       <c r="D17" s="7">
-        <v>701095</v>
+        <v>2239285</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="H17" s="7">
-        <v>680</v>
+        <v>2134</v>
       </c>
       <c r="I17" s="7">
-        <v>742908</v>
+        <v>2267231</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>187</v>
+        <v>271</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="M17" s="7">
-        <v>1377</v>
+        <v>4273</v>
       </c>
       <c r="N17" s="7">
-        <v>1444003</v>
+        <v>4506517</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>304</v>
+        <v>228</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,10 +4196,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>927</v>
+        <v>3205</v>
       </c>
       <c r="D18" s="7">
-        <v>932390</v>
+        <v>3367282</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4700,10 +4211,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>958</v>
+        <v>3322</v>
       </c>
       <c r="I18" s="7">
-        <v>1042783</v>
+        <v>3526792</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4715,10 +4226,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1885</v>
+        <v>6527</v>
       </c>
       <c r="N18" s="7">
-        <v>1975173</v>
+        <v>6894075</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4731,171 +4242,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1127997</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1188</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1259561</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2254</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2387558</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2139</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2239285</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2134</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2267231</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4273</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4506517</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3205</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3367282</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3322</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3526792</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6527</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6894075</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4908,8 +4263,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DA7B26-13D3-432C-BD93-7082D2785C21}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773A2BDD-D278-4490-BD14-481A2C992849}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4925,7 +4280,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5026,49 +4381,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="D4" s="7">
-        <v>4172</v>
+        <v>72479</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="H4" s="7">
-        <v>42</v>
+        <v>197</v>
       </c>
       <c r="I4" s="7">
-        <v>23883</v>
+        <v>108418</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>279</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>281</v>
       </c>
       <c r="M4" s="7">
-        <v>48</v>
+        <v>283</v>
       </c>
       <c r="N4" s="7">
-        <v>28055</v>
+        <v>180896</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>282</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>283</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,49 +4432,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>107</v>
+        <v>632</v>
       </c>
       <c r="D5" s="7">
-        <v>92604</v>
+        <v>544866</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>286</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
       <c r="H5" s="7">
-        <v>191</v>
+        <v>1020</v>
       </c>
       <c r="I5" s="7">
-        <v>101271</v>
+        <v>604672</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>288</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="M5" s="7">
-        <v>298</v>
+        <v>1652</v>
       </c>
       <c r="N5" s="7">
-        <v>193875</v>
+        <v>1149538</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,10 +4483,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>718</v>
       </c>
       <c r="D6" s="7">
-        <v>96776</v>
+        <v>617345</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5143,10 +4498,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>233</v>
+        <v>1217</v>
       </c>
       <c r="I6" s="7">
-        <v>125154</v>
+        <v>713090</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5158,10 +4513,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>346</v>
+        <v>1935</v>
       </c>
       <c r="N6" s="7">
-        <v>221930</v>
+        <v>1330434</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5181,49 +4536,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="D7" s="7">
-        <v>73996</v>
+        <v>110600</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H7" s="7">
+        <v>216</v>
+      </c>
+      <c r="I7" s="7">
+        <v>133377</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="M7" s="7">
         <v>339</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="H7" s="7">
-        <v>155</v>
-      </c>
-      <c r="I7" s="7">
-        <v>93387</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="M7" s="7">
-        <v>235</v>
-      </c>
       <c r="N7" s="7">
-        <v>167383</v>
+        <v>243978</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>344</v>
+        <v>300</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,49 +4587,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>525</v>
+        <v>832</v>
       </c>
       <c r="D8" s="7">
-        <v>465222</v>
+        <v>1070808</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="H8" s="7">
-        <v>829</v>
+        <v>1289</v>
       </c>
       <c r="I8" s="7">
-        <v>519195</v>
+        <v>817430</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="M8" s="7">
-        <v>1354</v>
+        <v>2121</v>
       </c>
       <c r="N8" s="7">
-        <v>984416</v>
+        <v>1888237</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,10 +4638,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>605</v>
+        <v>955</v>
       </c>
       <c r="D9" s="7">
-        <v>539218</v>
+        <v>1181408</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5298,10 +4653,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>984</v>
+        <v>1505</v>
       </c>
       <c r="I9" s="7">
-        <v>612582</v>
+        <v>950807</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5313,10 +4668,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1589</v>
+        <v>2460</v>
       </c>
       <c r="N9" s="7">
-        <v>1151799</v>
+        <v>2132215</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5336,49 +4691,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="D10" s="7">
-        <v>118652</v>
+        <v>94741</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="H10" s="7">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="I10" s="7">
-        <v>149290</v>
+        <v>117366</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>360</v>
+        <v>317</v>
       </c>
       <c r="M10" s="7">
-        <v>339</v>
+        <v>274</v>
       </c>
       <c r="N10" s="7">
-        <v>267942</v>
+        <v>212107</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,49 +4742,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>832</v>
+        <v>573</v>
       </c>
       <c r="D11" s="7">
-        <v>908935</v>
+        <v>605185</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>366</v>
+        <v>323</v>
       </c>
       <c r="H11" s="7">
-        <v>1289</v>
+        <v>859</v>
       </c>
       <c r="I11" s="7">
-        <v>902315</v>
+        <v>778497</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="M11" s="7">
-        <v>2121</v>
+        <v>1432</v>
       </c>
       <c r="N11" s="7">
-        <v>1811250</v>
+        <v>1383682</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,10 +4793,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>955</v>
+        <v>669</v>
       </c>
       <c r="D12" s="7">
-        <v>1027587</v>
+        <v>699926</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5453,10 +4808,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1505</v>
+        <v>1037</v>
       </c>
       <c r="I12" s="7">
-        <v>1051605</v>
+        <v>895863</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5468,10 +4823,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2460</v>
+        <v>1706</v>
       </c>
       <c r="N12" s="7">
-        <v>2079192</v>
+        <v>1595789</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5485,55 +4840,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="D13" s="7">
-        <v>99642</v>
+        <v>136578</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="H13" s="7">
-        <v>178</v>
+        <v>270</v>
       </c>
       <c r="I13" s="7">
-        <v>124987</v>
+        <v>248407</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>377</v>
+        <v>334</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>378</v>
+        <v>335</v>
       </c>
       <c r="M13" s="7">
-        <v>274</v>
+        <v>420</v>
       </c>
       <c r="N13" s="7">
-        <v>224629</v>
+        <v>384985</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>380</v>
+        <v>337</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>381</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,49 +4897,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>573</v>
+        <v>849</v>
       </c>
       <c r="D14" s="7">
-        <v>623950</v>
+        <v>780647</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>382</v>
+        <v>339</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>383</v>
+        <v>340</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>384</v>
+        <v>341</v>
       </c>
       <c r="H14" s="7">
-        <v>859</v>
+        <v>1279</v>
       </c>
       <c r="I14" s="7">
-        <v>734452</v>
+        <v>835554</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>386</v>
+        <v>343</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>387</v>
+        <v>344</v>
       </c>
       <c r="M14" s="7">
-        <v>1432</v>
+        <v>2128</v>
       </c>
       <c r="N14" s="7">
-        <v>1358402</v>
+        <v>1616202</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>388</v>
+        <v>345</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>389</v>
+        <v>346</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>390</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5593,10 +4948,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>669</v>
+        <v>999</v>
       </c>
       <c r="D15" s="7">
-        <v>723592</v>
+        <v>917225</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5608,10 +4963,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1037</v>
+        <v>1549</v>
       </c>
       <c r="I15" s="7">
-        <v>859439</v>
+        <v>1083961</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5623,10 +4978,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1706</v>
+        <v>2548</v>
       </c>
       <c r="N15" s="7">
-        <v>1583031</v>
+        <v>2001187</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5640,55 +4995,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>150</v>
+        <v>455</v>
       </c>
       <c r="D16" s="7">
-        <v>146081</v>
+        <v>414398</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>391</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="H16" s="7">
-        <v>270</v>
+        <v>861</v>
       </c>
       <c r="I16" s="7">
-        <v>216519</v>
+        <v>607568</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>395</v>
+        <v>351</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>396</v>
+        <v>352</v>
       </c>
       <c r="M16" s="7">
-        <v>420</v>
+        <v>1316</v>
       </c>
       <c r="N16" s="7">
-        <v>362600</v>
+        <v>1021966</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>397</v>
+        <v>353</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>68</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,49 +5052,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>849</v>
+        <v>2886</v>
       </c>
       <c r="D17" s="7">
-        <v>810393</v>
+        <v>3001505</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>308</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="H17" s="7">
-        <v>1279</v>
+        <v>4447</v>
       </c>
       <c r="I17" s="7">
-        <v>921504</v>
+        <v>3036154</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>358</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="M17" s="7">
-        <v>2128</v>
+        <v>7333</v>
       </c>
       <c r="N17" s="7">
-        <v>1731897</v>
+        <v>6037659</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>361</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>406</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>999</v>
+        <v>3341</v>
       </c>
       <c r="D18" s="7">
-        <v>956474</v>
+        <v>3415903</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5763,10 +5118,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1549</v>
+        <v>5308</v>
       </c>
       <c r="I18" s="7">
-        <v>1138023</v>
+        <v>3643722</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5778,10 +5133,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2548</v>
+        <v>8649</v>
       </c>
       <c r="N18" s="7">
-        <v>2094497</v>
+        <v>7059625</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5794,171 +5149,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>455</v>
-      </c>
-      <c r="D19" s="7">
-        <v>442544</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="H19" s="7">
-        <v>861</v>
-      </c>
-      <c r="I19" s="7">
-        <v>608065</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1316</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1050609</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2886</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2901102</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4447</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3178738</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7333</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6079840</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3341</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3343646</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5308</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3786803</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8649</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7130449</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
